--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,49 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180"/>
+    <workbookView windowWidth="18288" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
+    <sheet name="数据信息" sheetId="2" r:id="rId2"/>
+    <sheet name="新旧数据集" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原文件名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处理</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>原文件名</t>
+  </si>
+  <si>
+    <t>处理</t>
   </si>
   <si>
     <t>a</t>
@@ -104,29 +82,99 @@
   <si>
     <t>normal346.jpg</t>
   </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>1：正常道路</t>
+  </si>
+  <si>
+    <t>0：坑洼道路</t>
+  </si>
+  <si>
+    <t>正常道路与坑洼道路图像数据个数比值</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>原数据图像个数</t>
+  </si>
+  <si>
+    <t>处理后图像个数</t>
+  </si>
+  <si>
+    <t>1：normal</t>
+  </si>
+  <si>
+    <t>0：potholes</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>经预处理的数据集</t>
+  </si>
+  <si>
+    <t>新数据集</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="var(--jp-cell-prompt-font-famil"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF333333"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -620,150 +668,174 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,103 +1365,103 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="9"/>
+    <col min="2" max="2" width="15.2222222222222" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1398,4 +1470,174 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>266</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2/C2</f>
+        <v>7.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>259</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3/C3</f>
+        <v>6.31707317073171</v>
+      </c>
+      <c r="E3" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15"/>
+    <row r="13" spans="10:10">
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88888888888889" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>259</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2/C2</f>
+        <v>6.31707317073171</v>
+      </c>
+      <c r="E2" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>352</v>
+      </c>
+      <c r="C3" s="4">
+        <v>329</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3/C3</f>
+        <v>1.06990881458967</v>
+      </c>
+      <c r="E3" s="4">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15"/>
+    <row r="8" spans="8:8">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" activeTab="2"/>
+    <workbookView windowWidth="18288" windowHeight="9180" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
     <sheet name="数据信息" sheetId="2" r:id="rId2"/>
     <sheet name="新旧数据集" sheetId="3" r:id="rId3"/>
+    <sheet name="PCA-SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="CNN" sheetId="5" r:id="rId5"/>
+    <sheet name="CNN-SVM" sheetId="6" r:id="rId6"/>
+    <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId7"/>
+    <sheet name="Python库及其版本" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>编号</t>
   </si>
@@ -83,52 +88,492 @@
     <t>normal346.jpg</t>
   </si>
   <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>1：正常道路</t>
-  </si>
-  <si>
-    <t>0：坑洼道路</t>
-  </si>
-  <si>
-    <t>正常道路与坑洼道路图像数据个数比值</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>原数据图像个数</t>
-  </si>
-  <si>
-    <t>处理后图像个数</t>
-  </si>
-  <si>
-    <t>1：normal</t>
-  </si>
-  <si>
-    <t>0：potholes</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>经预处理的数据集</t>
-  </si>
-  <si>
-    <t>新数据集</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类别</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：正常道路</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：坑洼道路</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常道路与坑洼道路图像数据个数比值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原数据图像个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理后图像个数</t>
+    </r>
+  </si>
+  <si>
+    <t>数据集</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>potholes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经预处理的数据集</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新数据集</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维度</t>
+    </r>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>potholes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>marco avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算维度</t>
+    </r>
+  </si>
+  <si>
+    <t>PCA-SVM</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>CNN-SVM</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>weighted</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体</t>
+    </r>
+  </si>
+  <si>
+    <t>库</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内置库</t>
+    </r>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t>jupyter</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>nltk</t>
+  </si>
+  <si>
+    <t>jupyter-client</t>
+  </si>
+  <si>
+    <t>7.3.1</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>1.22.4+mkl</t>
+  </si>
+  <si>
+    <t>jupyter-console</t>
+  </si>
+  <si>
+    <t>6.4.3</t>
+  </si>
+  <si>
+    <t>openpyxl</t>
+  </si>
+  <si>
+    <t>3.0.10</t>
+  </si>
+  <si>
+    <t>jupyter-contrib-core</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>jupyter-contrib-nbextensions</t>
+  </si>
+  <si>
+    <t>0.5.1</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>0.22.2 psot1</t>
+  </si>
+  <si>
+    <t>jupyter-highlight-selected-word</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>seaborn</t>
+  </si>
+  <si>
+    <t>0.11.2</t>
+  </si>
+  <si>
+    <t>jupyterlab-pygments</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
+  </si>
+  <si>
+    <t>sklearn</t>
+  </si>
+  <si>
+    <t>jupyterlab-widgets</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>jupyter-latex-envs</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>yellowbrick</t>
+  </si>
+  <si>
+    <t>jupyter-nbextensions-configurator</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -144,25 +589,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color theme="1"/>
-      <name val="var(--jp-cell-prompt-font-famil"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.35"/>
-      <color rgb="FF333333"/>
-      <name val="JetBrains Mono"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,7 +600,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF333333"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -522,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -546,6 +990,35 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -674,7 +1147,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,34 +1159,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,45 +1271,66 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1366,102 +1860,102 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="9"/>
-    <col min="2" max="2" width="15.2222222222222" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="1" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1478,72 +1972,72 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="18" customWidth="1"/>
+    <col min="2" max="3" width="13" style="18" customWidth="1"/>
+    <col min="4" max="4" width="41" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>266</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>35</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <f>B2/C2</f>
         <v>7.6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>301</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>259</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>41</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <f>B3/C3</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="4" ht="15.15"/>
     <row r="13" spans="10:10">
-      <c r="J13" s="8"/>
+      <c r="J13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1556,86 +2050,894 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.88888888888889" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" ht="14.4" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
         <v>259</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>41</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <f>B2/C2</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
         <v>352</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>329</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <f>B3/C3</f>
         <v>1.06990881458967</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>681</v>
       </c>
     </row>
-    <row r="4" ht="15.15"/>
+    <row r="4" ht="14.55"/>
     <row r="8" spans="8:8">
-      <c r="H8" s="6"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="6"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="6"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="7"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="6"/>
-    </row>
+      <c r="H12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
+    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.33333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="E3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
+    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.33333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E5" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
+    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.33333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="E2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.77777777777778" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="11.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="30.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="18288" windowHeight="9180" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,25 @@
     <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId7"/>
     <sheet name="Python库及其版本" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>编号</t>
   </si>
@@ -432,13 +445,28 @@
     </r>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>共计</t>
+  </si>
+  <si>
+    <t>6m8s197ms</t>
+  </si>
+  <si>
+    <t>5m27s323ms</t>
+  </si>
+  <si>
+    <t>6m15s37ms</t>
+  </si>
+  <si>
     <t>库</t>
   </si>
   <si>
     <t>版本</t>
   </si>
   <si>
-    <t>copy</t>
+    <t>collections</t>
   </si>
   <si>
     <r>
@@ -452,10 +480,34 @@
     </r>
   </si>
   <si>
+    <t>jupyterlab-widgets</t>
+  </si>
+  <si>
+    <t>3.0.9</t>
+  </si>
+  <si>
+    <t>opencv-python</t>
+  </si>
+  <si>
+    <t>4.8.1.78</t>
+  </si>
+  <si>
+    <t>keras</t>
+  </si>
+  <si>
+    <t>2.14.0</t>
+  </si>
+  <si>
+    <t>h5py</t>
+  </si>
+  <si>
+    <t>3.10.0</t>
+  </si>
+  <si>
     <t>matplotlib</t>
   </si>
   <si>
-    <t>3.5.2</t>
+    <t>3.8.0</t>
   </si>
   <si>
     <t>jupyter</t>
@@ -464,67 +516,88 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>nltk</t>
-  </si>
-  <si>
-    <t>jupyter-client</t>
-  </si>
-  <si>
-    <t>7.3.1</t>
-  </si>
-  <si>
     <t>numpy</t>
   </si>
   <si>
-    <t>1.22.4+mkl</t>
+    <t>1.26.1</t>
+  </si>
+  <si>
+    <t>jupyter_client</t>
+  </si>
+  <si>
+    <t>8.5.0</t>
+  </si>
+  <si>
+    <t>os</t>
   </si>
   <si>
     <t>jupyter-console</t>
   </si>
   <si>
-    <t>6.4.3</t>
-  </si>
-  <si>
-    <t>openpyxl</t>
-  </si>
-  <si>
-    <t>3.0.10</t>
-  </si>
-  <si>
-    <t>jupyter-contrib-core</t>
-  </si>
-  <si>
-    <t>0.4.0</t>
+    <t>6.6.3</t>
   </si>
   <si>
     <t>pandas</t>
   </si>
   <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>jupyter-contrib-nbextensions</t>
-  </si>
-  <si>
-    <t>0.5.1</t>
-  </si>
-  <si>
-    <t>scikit-learn</t>
-  </si>
-  <si>
-    <t>0.22.2 psot1</t>
-  </si>
-  <si>
-    <t>jupyter-highlight-selected-word</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>seaborn</t>
-  </si>
-  <si>
-    <t>0.11.2</t>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>jupyter_core</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>pickle</t>
+  </si>
+  <si>
+    <t>jupyter-events</t>
+  </si>
+  <si>
+    <t>0.8.0</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>jupyter-lsp</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
+    <t>shutil</t>
+  </si>
+  <si>
+    <t>jupyter_server</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>sklearn</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>jupyter_server_terminals</t>
+  </si>
+  <si>
+    <t>0.4.4</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>jupyterlab</t>
+  </si>
+  <si>
+    <t>4.0.7</t>
+  </si>
+  <si>
+    <t>warnings</t>
   </si>
   <si>
     <t>jupyterlab-pygments</t>
@@ -533,40 +606,19 @@
     <t>0.2.2</t>
   </si>
   <si>
-    <t>sklearn</t>
-  </si>
-  <si>
-    <t>jupyterlab-widgets</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>xgboost</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>jupyter-latex-envs</t>
-  </si>
-  <si>
-    <t>1.4.6</t>
-  </si>
-  <si>
     <t>yellowbrick</t>
   </si>
   <si>
-    <t>jupyter-nbextensions-configurator</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
+    <t>jupyterlab_server</t>
+  </si>
+  <si>
+    <t>2.25.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -966,7 +1018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -986,7 +1038,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thick">
@@ -1017,8 +1102,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1147,7 +1234,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,34 +1246,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,54 +1358,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1860,102 +1974,102 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="15.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="15"/>
+    <col min="1" max="1" width="8.88888888888889" style="13"/>
+    <col min="2" max="2" width="15.2222222222222" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1972,72 +2086,72 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="18" customWidth="1"/>
-    <col min="2" max="3" width="13" style="18" customWidth="1"/>
-    <col min="4" max="4" width="41" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="27" customWidth="1"/>
+    <col min="2" max="3" width="13" style="27" customWidth="1"/>
+    <col min="4" max="4" width="41" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>266</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>35</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <f>B2/C2</f>
         <v>7.6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>301</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <v>259</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="19">
         <v>41</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="20">
         <f>B3/C3</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="19">
         <v>300</v>
       </c>
     </row>
     <row r="4" ht="15.15"/>
     <row r="13" spans="10:10">
-      <c r="J13" s="19"/>
+      <c r="J13" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2051,87 +2165,87 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.88888888888889" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="15"/>
+    <col min="1" max="1" width="18.6666666666667" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" style="13" customWidth="1"/>
+    <col min="4" max="4" width="41" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.88888888888889" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>259</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>41</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <f>B2/C2</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>300</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <v>352</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="19">
         <v>329</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="20">
         <f>B3/C3</f>
         <v>1.06990881458967</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="19">
         <v>681</v>
       </c>
     </row>
     <row r="4" ht="14.55"/>
     <row r="8" spans="8:8">
-      <c r="H8" s="16"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="16"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="16"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="17"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="16"/>
+      <c r="H12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2145,7 +2259,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -2158,100 +2272,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="21">
         <v>0.5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="21">
         <v>0.25</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="21">
         <v>0.33</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="21">
         <v>0.89</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="21">
         <v>0.96</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="21">
         <v>0.93</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
         <v>0.87</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="21">
         <v>0.7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="21">
         <v>0.61</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="21">
         <v>0.63</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="22">
         <v>0.84</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="22">
         <v>0.87</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="22">
         <v>0.85</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="19">
         <v>60</v>
       </c>
     </row>
@@ -2268,7 +2382,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -2281,100 +2395,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0.9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>0.88</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>0.89</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>0.88</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0.9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0.89</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>0.89</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>0.89</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.89</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.89</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="20">
         <v>0.89</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="20">
         <v>0.89</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="20">
         <v>0.89</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="19">
         <v>136</v>
       </c>
     </row>
@@ -2391,7 +2505,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -2404,100 +2518,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0.89</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>0.93</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>0.91</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>0.92</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0.88</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0.9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>0.9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>0.91</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.9</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="20">
         <v>0.91</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="20">
         <v>0.9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="20">
         <v>0.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="19">
         <v>136</v>
       </c>
     </row>
@@ -2511,238 +2625,256 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.77777777777778" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="11.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="14">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="14">
         <v>0.9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="14">
         <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0.89</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0.88</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>0.7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>0.89</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="16">
         <v>0.84</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>0.89</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="16">
         <v>0.91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>0.25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="14">
         <v>0.88</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="14">
         <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>0.96</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>0.9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>0.61</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>0.89</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="16">
         <v>0.87</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="16">
         <v>0.89</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>0.33</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="14">
         <v>0.89</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="14">
         <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>0.93</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>0.89</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>0.63</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>0.89</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="16">
         <v>0.85</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="16">
         <v>0.89</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:5">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>0.87</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>0.89</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" ht="14.55" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2759,185 +2891,243 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="22.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.22222222222222" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="15.15"/>
+      <c r="C11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="18288" windowHeight="9180" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
@@ -395,37 +395,65 @@
     <t>weighted avg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>指标</t>
+  </si>
+  <si>
+    <t>计算维度</t>
+  </si>
+  <si>
+    <t>PCA-SVM</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>CNN-SVM</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>指标</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>potholes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>计算维度</t>
-    </r>
-  </si>
-  <si>
-    <t>PCA-SVM</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>CNN-SVM</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>normal</t>
+    </r>
   </si>
   <si>
     <t>macro</t>
@@ -448,7 +476,15 @@
     <t>T</t>
   </si>
   <si>
-    <t>共计</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共计</t>
+    </r>
   </si>
   <si>
     <t>6m8s197ms</t>
@@ -1082,21 +1118,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1105,7 +1130,16 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1358,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,48 +1414,57 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,9 +1482,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1979,97 +2019,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="13"/>
-    <col min="2" max="2" width="15.2222222222222" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="23"/>
+    <col min="1" max="1" width="8.88888888888889" style="4"/>
+    <col min="2" max="2" width="15.2222222222222" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="1:3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2091,67 +2131,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="27" customWidth="1"/>
-    <col min="2" max="3" width="13" style="27" customWidth="1"/>
-    <col min="4" max="4" width="41" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>266</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="4">
         <v>35</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <f>B2/C2</f>
         <v>7.6</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>301</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="23">
         <v>259</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="23">
         <v>41</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="7">
         <f>B3/C3</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="23">
         <v>300</v>
       </c>
     </row>
     <row r="4" ht="15.15"/>
     <row r="13" spans="10:10">
-      <c r="J13" s="28"/>
+      <c r="J13" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2170,82 +2210,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" style="13" customWidth="1"/>
-    <col min="4" max="4" width="41" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.88888888888889" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="23"/>
+    <col min="1" max="1" width="18.6666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.88888888888889" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>259</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="4">
         <v>41</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <f>B2/C2</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="23">
         <v>352</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="23">
         <v>329</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="7">
         <f>B3/C3</f>
         <v>1.06990881458967</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="23">
         <v>681</v>
       </c>
     </row>
     <row r="4" ht="14.55"/>
     <row r="8" spans="8:8">
-      <c r="H8" s="25"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="25"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="25"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="26"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="25"/>
+      <c r="H12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2272,100 +2312,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="24">
         <v>0.5</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>0.25</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="24">
         <v>0.33</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="24">
         <v>0.89</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="24">
         <v>0.96</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="24">
         <v>0.93</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24">
         <v>0.87</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="24">
         <v>0.7</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="24">
         <v>0.61</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="24">
         <v>0.63</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="25">
         <v>0.84</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="25">
         <v>0.87</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="25">
         <v>0.85</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="23">
         <v>60</v>
       </c>
     </row>
@@ -2395,100 +2435,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>0.9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>0.88</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>0.89</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>0.88</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>0.89</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>0.89</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>0.89</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.89</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.89</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="7">
         <v>0.89</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="7">
         <v>0.89</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="7">
         <v>0.89</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="23">
         <v>136</v>
       </c>
     </row>
@@ -2518,100 +2558,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>0.89</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>0.93</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>0.91</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>0.92</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.88</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>0.9</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>0.9</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>0.91</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.9</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="7">
         <v>0.91</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="7">
         <v>0.9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="7">
         <v>0.9</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="23">
         <v>136</v>
       </c>
     </row>
@@ -2627,7 +2667,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2640,74 +2680,74 @@
     <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="13">
         <v>0.5</v>
       </c>
       <c r="D2" s="14">
         <v>0.9</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16">
         <v>0.89</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="16">
         <v>0.88</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="17">
         <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="16">
         <v>0.89</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="17">
         <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16">
         <v>0.84</v>
@@ -2715,21 +2755,21 @@
       <c r="D5" s="16">
         <v>0.89</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>0.91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.25</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.88</v>
       </c>
       <c r="E6" s="14">
@@ -2737,39 +2777,39 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17">
         <v>0.96</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="16">
         <v>0.9</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="16">
         <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="16">
         <v>0.61</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="16">
         <v>0.89</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="17">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16">
         <v>0.87</v>
@@ -2777,21 +2817,21 @@
       <c r="D9" s="16">
         <v>0.89</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="13">
         <v>0.33</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.89</v>
       </c>
       <c r="E10" s="14">
@@ -2799,39 +2839,39 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="17">
         <v>0.93</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="16">
         <v>0.89</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="16">
         <v>0.63</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="16">
         <v>0.89</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="17">
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="16">
         <v>0.85</v>
@@ -2839,42 +2879,42 @@
       <c r="D13" s="16">
         <v>0.89</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="19">
         <v>0.87</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="19">
         <v>0.89</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" ht="14.55" spans="1:5">
-      <c r="A15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="17" t="s">
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="C15" s="21" t="s">
         <v>54</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +2933,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2908,223 +2948,223 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="8">
+        <v>103</v>
+      </c>
+      <c r="D14" s="5">
         <v>1.5</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="15.15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="15.15"/>

--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="18288" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>编号</t>
   </si>
@@ -408,52 +408,6 @@
   </si>
   <si>
     <t>CNN-SVM</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>potholes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>normal</t>
-    </r>
   </si>
   <si>
     <t>macro</t>
@@ -663,7 +617,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +640,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1262,137 +1224,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,6 +1391,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,15 +1403,15 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,15 +1421,15 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,13 +1442,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2013,7 +1978,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2022,17 +1987,17 @@
     <col min="1" max="1" width="8.88888888888889" style="4"/>
     <col min="2" max="2" width="15.2222222222222" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="26"/>
+    <col min="4" max="16384" width="8.88888888888889" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2137,19 +2102,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2191,7 +2156,7 @@
     </row>
     <row r="4" ht="15.15"/>
     <row r="13" spans="10:10">
-      <c r="J13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2215,23 +2180,23 @@
     <col min="3" max="3" width="14.2222222222222" style="4" customWidth="1"/>
     <col min="4" max="4" width="41" style="4" customWidth="1"/>
     <col min="5" max="5" width="5.88888888888889" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="26"/>
+    <col min="6" max="16384" width="8.88888888888889" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2273,19 +2238,19 @@
     </row>
     <row r="4" ht="14.55"/>
     <row r="8" spans="8:8">
-      <c r="H8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="28"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="28"/>
+      <c r="H12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2312,19 +2277,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2332,13 +2297,13 @@
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>0.5</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="25">
         <v>0.25</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="25">
         <v>0.33</v>
       </c>
       <c r="E2" s="4">
@@ -2349,13 +2314,13 @@
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="25">
         <v>0.89</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="25">
         <v>0.96</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="25">
         <v>0.93</v>
       </c>
       <c r="E3" s="4">
@@ -2366,9 +2331,9 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25">
         <v>0.87</v>
       </c>
       <c r="E4" s="4">
@@ -2379,13 +2344,13 @@
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>0.7</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="25">
         <v>0.61</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <v>0.63</v>
       </c>
       <c r="E5" s="4">
@@ -2396,13 +2361,13 @@
       <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>0.84</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="26">
         <v>0.87</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="26">
         <v>0.85</v>
       </c>
       <c r="E6" s="23">
@@ -2435,19 +2400,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2558,19 +2523,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2665,9 +2630,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2701,28 +2666,28 @@
       <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14">
         <v>0.5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>0.9</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="A3" s="16"/>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.89</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="5">
         <v>0.88</v>
       </c>
       <c r="E3" s="17">
@@ -2730,14 +2695,14 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.7</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="5">
         <v>0.89</v>
       </c>
       <c r="E4" s="17">
@@ -2745,14 +2710,14 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.84</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="5">
         <v>0.89</v>
       </c>
       <c r="E5" s="17">
@@ -2763,43 +2728,43 @@
       <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.25</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>0.88</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
-        <v>48</v>
+      <c r="A7" s="16"/>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="17">
         <v>0.96</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="5">
         <v>0.9</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="5">
         <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="A8" s="16"/>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.61</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="5">
         <v>0.89</v>
       </c>
       <c r="E8" s="17">
@@ -2807,14 +2772,14 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="A9" s="16"/>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.87</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="5">
         <v>0.89</v>
       </c>
       <c r="E9" s="17">
@@ -2825,43 +2790,43 @@
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="14">
         <v>0.33</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>0.89</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
-        <v>48</v>
+      <c r="A11" s="16"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="17">
         <v>0.93</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="5">
         <v>0.89</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.63</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="5">
         <v>0.89</v>
       </c>
       <c r="E12" s="17">
@@ -2869,14 +2834,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.85</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="5">
         <v>0.89</v>
       </c>
       <c r="E13" s="17">
@@ -2887,36 +2852,37 @@
       <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" ht="14.55" spans="1:5">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="19">
-        <v>0.87</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.89</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:5">
-      <c r="A15" s="21" t="s">
+      <c r="C15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="D15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="E15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" ht="15.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -2948,208 +2914,208 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D14" s="5">
         <v>1.5</v>
@@ -3158,10 +3124,10 @@
     </row>
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
